--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\wjx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A0D62-FA23-4CCF-8396-E873BBDF65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D39FD5-28D3-4BAD-AA06-2877512CFBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>题目序号</t>
   </si>
@@ -31,7 +31,16 @@
     <t>选项2</t>
   </si>
   <si>
-    <t>···</t>
+    <t>选项3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -62,7 +71,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -94,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -102,9 +111,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -118,7 +124,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -426,17 +438,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,65 +462,147 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.3</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
